--- a/ELToD/Reporting/ELTOD Output-CSV via Rscript/Template.xlsx
+++ b/ELToD/Reporting/ELTOD Output-CSV via Rscript/Template.xlsx
@@ -16,7 +16,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
